--- a/artfynd/A 38230-2018.xlsx
+++ b/artfynd/A 38230-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>422869</v>
+        <v>437652</v>
       </c>
       <c r="B2" t="n">
-        <v>99120</v>
+        <v>99121</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ängarna, 200 m SSV om, hällar vid vägen, Dls</t>
+          <t>SSV Ängarna lokal 2, Dls</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -735,7 +735,7 @@
         <v>6525697.56932743</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -757,14 +757,9 @@
           <t>Ånimskog</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>OD-Åmå-0112</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>2007-05-31</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2001-12-31</t>
+          <t>2007-05-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -784,7 +779,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>y tidigare: 1308955 x tidigare: 6529755. 25 m2</t>
+          <t>10 m²</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,28 +790,19 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Högre bergskärning på landsvägens västsida, samt vägens östra sida</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Dalsland Floraväktarna</t>
+          <t>Lars Sjögren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Anders Bertilsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Gunnar Flygh</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
